--- a/pc/public/import_template/esw/pt.xlsx
+++ b/pc/public/import_template/esw/pt.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPt;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.pt_type_id_lbl%&gt;&lt;%selectList.pt_type_id = data.findAllPtType?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.pt_type_id &amp;&amp; selectList.pt_type_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.pt_type_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.pt_type_ids_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.price%&gt;</t>
@@ -48,10 +48,10 @@
     <t xml:space="preserve">&lt;%=comment.introduct%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.order_by%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.detail%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.order_by%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>

--- a/pc/public/import_template/esw/pt.xlsx
+++ b/pc/public/import_template/esw/pt.xlsx
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.original_price%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.unit%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.is_new_lbl%&gt;&lt;%selectList.is_new = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_new &amp;&amp; selectList.is_new.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_new.join(",") }"`, allowBlank: '0' })%&gt;</t>
@@ -413,6 +416,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
